--- a/biology/Histoire de la zoologie et de la botanique/Alekseï_Bialynitski-Biroulia/Alekseï_Bialynitski-Biroulia.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alekseï_Bialynitski-Biroulia/Alekseï_Bialynitski-Biroulia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alekse%C3%AF_Bialynitski-Biroulia</t>
+          <t>Alekseï_Bialynitski-Biroulia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alekseï Andreïevitch Bialynitski-Biroulia (en russe : Алексей Андреевич Бялыницкий-Бируля, transcription anglaise : Alexei Andreevich Byalynitsky-Birula, né le 2 novembre 1864 à Orcha dans la province de Moguilev et mort le 18 juin 1937 à Leningrad)[1] est un arachnologiste russe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alekseï Andreïevitch Bialynitski-Biroulia (en russe : Алексей Андреевич Бялыницкий-Бируля, transcription anglaise : Alexei Andreevich Byalynitsky-Birula, né le 2 novembre 1864 à Orcha dans la province de Moguilev et mort le 18 juin 1937 à Leningrad) est un arachnologiste russe.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alekse%C3%AF_Bialynitski-Biroulia</t>
+          <t>Alekseï_Bialynitski-Biroulia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur à l'Université d'État de Saint-Pétersbourg.
-En 1902, il fait partie de l'expédition de la Zaria. Alors que Eduard von Toll et Friedrich Seeberg disparaissent définitivement vers l'île Bennett, il parvient à rejoindre l'embouchure de la Iana et survit[2]
+En 1902, il fait partie de l'expédition de la Zaria. Alors que Eduard von Toll et Friedrich Seeberg disparaissent définitivement vers l'île Bennett, il parvient à rejoindre l'embouchure de la Iana et survit
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alekse%C3%AF_Bialynitski-Biroulia</t>
+          <t>Alekseï_Bialynitski-Biroulia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anemesia birulai (Spassky, 1937)
 Calchas birulai Fet, Soleglad &amp; Kovařík, 2009</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alekse%C3%AF_Bialynitski-Biroulia</t>
+          <t>Alekseï_Bialynitski-Biroulia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthogylippus
